--- a/Nevasa/InformeCompleto/20250326/20250326_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20250326/20250326_informe_completo_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,36 +496,476 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19915714</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19804418</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SMT_25042025_26032025_0.56_ALMENDRAL</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60673860</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60372000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SMT_25042025_26032025_0.5_CAP</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E4" t="n">
+        <v>300531837</v>
+      </c>
+      <c r="F4" t="n">
+        <v>299920000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SMT_07042025_26032025_0.51_SQM-B</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10172899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10122288</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SMT_25042025_26032025_0.5_SQM-B</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.44</v>
       </c>
-      <c r="E2" t="n">
-        <v>1940284533</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1940000000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>PACTO_26032025_25032025_0.44_AHORRO</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="E6" t="n">
+        <v>520076267</v>
+      </c>
+      <c r="F6" t="n">
+        <v>520000000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PACTO_27032025_26032025_0.44_AHORRO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>PACTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F7" t="n">
+        <v>98712407</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>BESTT90817</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>RENTA FIJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1143394888</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>BCHIEP0717</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>RENTA FIJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>518380427.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>514777328</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CCU</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>999180600</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>BNPDBC010425</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2000000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1998088400</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>BNPDBC020425</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1800000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1798014960</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>BNPDBC030425</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16972.82</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23191</v>
+      </c>
+      <c r="F13" t="n">
+        <v>393616669</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
         </is>
       </c>
     </row>
